--- a/excel_files/3.3.4.xlsx
+++ b/excel_files/3.3.4.xlsx
@@ -697,10 +697,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +712,7 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -747,7 +747,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -796,8 +796,11 @@
       <c r="P3" s="9">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
@@ -846,8 +849,11 @@
       <c r="P4" s="37">
         <v>3.918522608558952</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="37">
+        <v>1.9148453093736542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -896,8 +902,11 @@
       <c r="P5" s="38">
         <v>2.5208314439906609</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="38">
+        <v>1.7453236044300597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -946,8 +955,11 @@
       <c r="P6" s="38">
         <v>5.3377117136239622</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="38">
+        <v>2.0818900906859255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>13</v>
       </c>
@@ -996,8 +1008,11 @@
       <c r="P7" s="38">
         <v>4.8941637097760919</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="38">
+        <v>1.658050942694075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1046,8 +1061,11 @@
       <c r="P8" s="38">
         <v>2.3023349513631741</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="38">
+        <v>1.4467487937731931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1096,8 +1114,11 @@
       <c r="P9" s="38">
         <v>7.3898906296186819</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="38">
+        <v>1.8774124750304142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>15</v>
       </c>
@@ -1146,8 +1167,11 @@
       <c r="P10" s="38">
         <v>3.1795413633873366</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="38">
+        <v>0.96024351775610284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1196,8 +1220,11 @@
       <c r="P11" s="38">
         <v>2.2974019665760834</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="38">
+        <v>0.63595936855594293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1246,8 +1273,11 @@
       <c r="P12" s="38">
         <v>4.0504983733198534</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="38">
+        <v>1.2888424905592288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>16</v>
       </c>
@@ -1296,8 +1326,11 @@
       <c r="P13" s="38">
         <v>2.2316583047106251</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="38">
+        <v>1.6032353288937073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1346,8 +1379,11 @@
       <c r="P14" s="38">
         <v>2.0206837185430064</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="38">
+        <v>2.4146715443031859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1396,8 +1432,11 @@
       <c r="P15" s="38">
         <v>2.4443303756935784</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="38">
+        <v>0.79837132250209564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>17</v>
       </c>
@@ -1446,8 +1485,11 @@
       <c r="P16" s="38">
         <v>1.7340940225779042</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="38">
+        <v>1.3751327862596732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1496,8 +1538,11 @@
       <c r="P17" s="38">
         <v>1.4128185022711057</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="38">
+        <v>0.67516929870164943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1546,8 +1591,11 @@
       <c r="P18" s="38">
         <v>2.0439587392862495</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="38">
+        <v>2.1012817818869509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>19</v>
       </c>
@@ -1596,8 +1644,11 @@
       <c r="P19" s="38">
         <v>3.7639543070707724</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q19" s="38">
+        <v>1.5943738893736428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1646,8 +1697,11 @@
       <c r="P20" s="38">
         <v>2.2387992871663069</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="38">
+        <v>1.5765365498500856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -1696,8 +1750,11 @@
       <c r="P21" s="38">
         <v>5.2558120521610148</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="38">
+        <v>1.6126194804433236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>21</v>
       </c>
@@ -1746,8 +1803,11 @@
       <c r="P22" s="38">
         <v>1.8839771511251113</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="38">
+        <v>0.37150276583809166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1796,8 +1856,11 @@
       <c r="P23" s="38">
         <v>1.5242392141022612</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1846,8 +1909,11 @@
       <c r="P24" s="38">
         <v>2.2357526661350544</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="38">
+        <v>0.75125835774923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>23</v>
       </c>
@@ -1896,8 +1962,11 @@
       <c r="P25" s="38">
         <v>5.0499258818170052</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="38">
+        <v>2.8942542850468351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -1946,8 +2015,11 @@
       <c r="P26" s="38">
         <v>3.7317455447104577</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="38">
+        <v>2.72898263527357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -1996,8 +2068,11 @@
       <c r="P27" s="38">
         <v>6.4080519308528485</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="38">
+        <v>3.0545792215303034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>25</v>
       </c>
@@ -2046,8 +2121,11 @@
       <c r="P28" s="38">
         <v>5.1894135962636225</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="38">
+        <v>3.9473869708034344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -2096,8 +2174,11 @@
       <c r="P29" s="38">
         <v>2.8949477733328264</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="38">
+        <v>3.6031203021816895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -2146,8 +2227,11 @@
       <c r="P30" s="38">
         <v>7.7885929906762339</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q30" s="38">
+        <v>4.2520923837938582</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>27</v>
       </c>
@@ -2196,8 +2280,11 @@
       <c r="P31" s="38">
         <v>4.5752680616876855</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>34</v>
       </c>
@@ -2246,8 +2333,11 @@
       <c r="P32" s="39">
         <v>2.5372017202227664</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q32" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>31</v>
       </c>
@@ -2295,6 +2385,9 @@
       </c>
       <c r="P33" s="40">
         <v>6.7413155003067295</v>
+      </c>
+      <c r="Q33" s="40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/3.3.4.xlsx
+++ b/excel_files/3.3.4.xlsx
@@ -697,10 +697,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +712,7 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -747,7 +747,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -799,8 +799,11 @@
       <c r="Q3" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
@@ -852,8 +855,11 @@
       <c r="Q4" s="37">
         <v>1.9148453093736542</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="37">
+        <v>1.7931687443515183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -905,8 +911,11 @@
       <c r="Q5" s="38">
         <v>1.7453236044300597</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="38">
+        <v>1.0977143806517458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -958,8 +967,11 @@
       <c r="Q6" s="38">
         <v>2.0818900906859255</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="38">
+        <v>2.4989281705678046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>13</v>
       </c>
@@ -1011,8 +1023,11 @@
       <c r="Q7" s="38">
         <v>1.658050942694075</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="38">
+        <v>2.3489023398681002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1064,8 +1079,11 @@
       <c r="Q8" s="38">
         <v>1.4467487937731931</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="38">
+        <v>1.8410239038543676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1117,8 +1135,11 @@
       <c r="Q9" s="38">
         <v>1.8774124750304142</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="38">
+        <v>2.8382683724659588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>15</v>
       </c>
@@ -1170,8 +1191,11 @@
       <c r="Q10" s="38">
         <v>0.96024351775610284</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="38">
+        <v>1.2584206034913306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1223,8 +1247,11 @@
       <c r="Q11" s="38">
         <v>0.63595936855594293</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="38">
+        <v>0.79202525610136665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1276,8 +1303,11 @@
       <c r="Q12" s="38">
         <v>1.2888424905592288</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="38">
+        <v>1.7183687369364922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>16</v>
       </c>
@@ -1329,8 +1359,11 @@
       <c r="Q13" s="38">
         <v>1.6032353288937073</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="38">
+        <v>1.7860084101151579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1382,8 +1415,11 @@
       <c r="Q14" s="38">
         <v>2.4146715443031859</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="38">
+        <v>1.5807090270340762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1435,8 +1471,11 @@
       <c r="Q15" s="38">
         <v>0.79837132250209564</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="38">
+        <v>1.9930959157478496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>17</v>
       </c>
@@ -1488,8 +1527,11 @@
       <c r="Q16" s="38">
         <v>1.3751327862596732</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="38">
+        <v>1.0231016349164126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1541,8 +1583,11 @@
       <c r="Q17" s="38">
         <v>0.67516929870164943</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1594,8 +1639,11 @@
       <c r="Q18" s="38">
         <v>2.1012817818869509</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="38">
+        <v>2.0091214112068791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>19</v>
       </c>
@@ -1647,8 +1695,11 @@
       <c r="Q19" s="38">
         <v>1.5943738893736428</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="38">
+        <v>2.2092990108041848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1700,8 +1751,11 @@
       <c r="Q20" s="38">
         <v>1.5765365498500856</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="38">
+        <v>0.86496336159360854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -1753,8 +1807,11 @@
       <c r="Q21" s="38">
         <v>1.6126194804433236</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="38">
+        <v>3.5236628052020538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>21</v>
       </c>
@@ -1806,8 +1863,11 @@
       <c r="Q22" s="38">
         <v>0.37150276583809166</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="38">
+        <v>1.4678252700798498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1859,8 +1919,11 @@
       <c r="Q23" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="38">
+        <v>0.74155920237892192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1912,8 +1975,11 @@
       <c r="Q24" s="38">
         <v>0.75125835774923</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="38">
+        <v>2.1792664589099311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>23</v>
       </c>
@@ -1965,8 +2031,11 @@
       <c r="Q25" s="38">
         <v>2.8942542850468351</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="38">
+        <v>1.5302890103825006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -2018,8 +2087,11 @@
       <c r="Q26" s="38">
         <v>2.72898263527357</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="38">
+        <v>0.80351618683358383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -2071,8 +2143,11 @@
       <c r="Q27" s="38">
         <v>3.0545792215303034</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="38">
+        <v>2.280288974802807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>25</v>
       </c>
@@ -2124,8 +2199,11 @@
       <c r="Q28" s="38">
         <v>3.9473869708034344</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="38">
+        <v>2.3014726663297309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -2177,8 +2255,11 @@
       <c r="Q29" s="38">
         <v>3.6031203021816895</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="38">
+        <v>1.7358308467556451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -2230,8 +2311,11 @@
       <c r="Q30" s="38">
         <v>4.2520923837938582</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="38">
+        <v>2.9402079315049163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>27</v>
       </c>
@@ -2283,8 +2367,11 @@
       <c r="Q31" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="38">
+        <v>1.2198989923634325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>34</v>
       </c>
@@ -2336,8 +2423,11 @@
       <c r="Q32" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R32" s="39">
+        <v>1.1878318505232399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>31</v>
       </c>
@@ -2388,6 +2478,9 @@
       </c>
       <c r="Q33" s="40">
         <v>0</v>
+      </c>
+      <c r="R33" s="40">
+        <v>1.2537455648750642</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/3.3.4.xlsx
+++ b/excel_files/3.3.4.xlsx
@@ -280,7 +280,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -388,6 +388,7 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -697,10 +698,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +713,7 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
@@ -734,7 +735,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -747,7 +748,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -802,8 +803,11 @@
       <c r="R3" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
@@ -858,8 +862,11 @@
       <c r="R4" s="37">
         <v>1.7931687443515183</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="37">
+        <v>1.9210869108320343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -914,8 +921,11 @@
       <c r="R5" s="38">
         <v>1.0977143806517458</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="38">
+        <v>1.020872301352429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -970,8 +980,11 @@
       <c r="R6" s="38">
         <v>2.4989281705678046</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="38">
+        <v>2.8415499553180767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>13</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="R7" s="38">
         <v>2.3489023398681002</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="41">
+        <v>1.5924017665043597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1082,8 +1098,11 @@
       <c r="R8" s="38">
         <v>1.8410239038543676</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="38">
+        <v>2.5011433798307796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1138,8 +1157,11 @@
       <c r="R9" s="38">
         <v>2.8382683724659588</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="38">
+        <v>0.70098698968147144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>15</v>
       </c>
@@ -1194,8 +1216,11 @@
       <c r="R10" s="38">
         <v>1.2584206034913306</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="41">
+        <v>2.2312343573160249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1250,8 +1275,11 @@
       <c r="R11" s="38">
         <v>0.79202525610136665</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="38">
+        <v>2.4764236727529938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1306,8 +1334,11 @@
       <c r="R12" s="38">
         <v>1.7183687369364922</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="38">
+        <v>1.9888745417939038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>16</v>
       </c>
@@ -1362,8 +1393,11 @@
       <c r="R13" s="38">
         <v>1.7860084101151579</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="41">
+        <v>1.3057776932131271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1418,8 +1452,11 @@
       <c r="R14" s="38">
         <v>1.5807090270340762</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="38">
+        <v>2.6056788910230639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1474,8 +1511,11 @@
       <c r="R15" s="38">
         <v>1.9930959157478496</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>17</v>
       </c>
@@ -1530,8 +1570,11 @@
       <c r="R16" s="38">
         <v>1.0231016349164126</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="41">
+        <v>0.65058422463372112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1586,8 +1629,11 @@
       <c r="R17" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="38">
+        <v>0.65686622262510019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="R18" s="38">
         <v>2.0091214112068791</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="38">
+        <v>0.64442124527961442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>19</v>
       </c>
@@ -1698,8 +1747,11 @@
       <c r="R19" s="38">
         <v>2.2092990108041848</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="41">
+        <v>2.5553368555544047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1754,8 +1806,11 @@
       <c r="R20" s="38">
         <v>0.86496336159360854</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="38">
+        <v>1.807815324711445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -1810,8 +1865,11 @@
       <c r="R21" s="38">
         <v>3.5236628052020538</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="38">
+        <v>3.2928586128833093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>21</v>
       </c>
@@ -1866,8 +1924,11 @@
       <c r="R22" s="38">
         <v>1.4678252700798498</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="41">
+        <v>1.8387963974300983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1922,8 +1983,11 @@
       <c r="R23" s="38">
         <v>0.74155920237892192</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S23" s="38">
+        <v>2.2260807622100529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1978,8 +2042,11 @@
       <c r="R24" s="38">
         <v>2.1792664589099311</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="38">
+        <v>1.4582467499325562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>23</v>
       </c>
@@ -2034,8 +2101,11 @@
       <c r="R25" s="38">
         <v>1.5302890103825006</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="41">
+        <v>1.2245886088767601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -2090,8 +2160,11 @@
       <c r="R26" s="38">
         <v>0.80351618683358383</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="38">
+        <v>1.3105423773238725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -2146,8 +2219,11 @@
       <c r="R27" s="38">
         <v>2.280288974802807</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S27" s="38">
+        <v>1.1375464261135158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>25</v>
       </c>
@@ -2202,8 +2278,11 @@
       <c r="R28" s="38">
         <v>2.3014726663297309</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S28" s="41">
+        <v>2.4791112740241377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -2258,8 +2337,11 @@
       <c r="R29" s="38">
         <v>1.7358308467556451</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S29" s="38">
+        <v>2.4279584268771761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -2314,8 +2396,11 @@
       <c r="R30" s="38">
         <v>2.9402079315049163</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S30" s="38">
+        <v>2.5408788313520994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>27</v>
       </c>
@@ -2370,8 +2455,11 @@
       <c r="R31" s="38">
         <v>1.2198989923634325</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="41">
+        <v>1.1238322680339958</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>34</v>
       </c>
@@ -2426,8 +2514,11 @@
       <c r="R32" s="39">
         <v>1.1878318505232399</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S32" s="39">
+        <v>0.57553956834532372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>31</v>
       </c>
@@ -2481,6 +2572,9 @@
       </c>
       <c r="R33" s="40">
         <v>1.2537455648750642</v>
+      </c>
+      <c r="S33" s="40">
+        <v>1.6467682173734046</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/3.3.4.xlsx
+++ b/excel_files/3.3.4.xlsx
@@ -698,11 +698,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -713,7 +711,7 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
@@ -735,7 +733,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -748,7 +746,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -806,8 +804,11 @@
       <c r="S3" s="9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
@@ -865,8 +866,11 @@
       <c r="S4" s="37">
         <v>1.9210869108320343</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="37">
+        <v>2.3381104968484805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -924,8 +928,11 @@
       <c r="S5" s="38">
         <v>1.020872301352429</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="38">
+        <v>2.0344672190198714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -983,8 +990,11 @@
       <c r="S6" s="38">
         <v>2.8415499553180767</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="38">
+        <v>2.6483752218014245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>13</v>
       </c>
@@ -1042,8 +1052,11 @@
       <c r="S7" s="41">
         <v>1.5924017665043597</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="41">
+        <v>3.9852372948902328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1101,8 +1114,11 @@
       <c r="S8" s="38">
         <v>2.5011433798307796</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="38">
+        <v>4.5532396299967433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1160,8 +1176,11 @@
       <c r="S9" s="38">
         <v>0.70098698968147144</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="38">
+        <v>3.4291318466903733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>15</v>
       </c>
@@ -1219,8 +1238,11 @@
       <c r="S10" s="41">
         <v>2.2312343573160249</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="41">
+        <v>1.2089851778417198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1278,8 +1300,11 @@
       <c r="S11" s="38">
         <v>2.4764236727529938</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="38">
+        <v>1.521116134174612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1337,8 +1362,11 @@
       <c r="S12" s="38">
         <v>1.9888745417939038</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="38">
+        <v>0.9008846687447073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>16</v>
       </c>
@@ -1396,8 +1424,11 @@
       <c r="S13" s="41">
         <v>1.3057776932131271</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="41">
+        <v>3.694303753043183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1455,8 +1486,11 @@
       <c r="S14" s="38">
         <v>2.6056788910230639</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="38">
+        <v>4.0607488020791038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1514,8 +1548,11 @@
       <c r="S15" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="38">
+        <v>3.327319511401615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>17</v>
       </c>
@@ -1573,8 +1610,11 @@
       <c r="S16" s="41">
         <v>0.65058422463372112</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="41">
+        <v>0.32236434908190637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1632,8 +1672,11 @@
       <c r="S17" s="38">
         <v>0.65686622262510019</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1691,8 +1734,11 @@
       <c r="S18" s="38">
         <v>0.64442124527961442</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="38">
+        <v>0.63756806039044667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>19</v>
       </c>
@@ -1750,8 +1796,11 @@
       <c r="S19" s="41">
         <v>2.5553368555544047</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="41">
+        <v>2.1691385808410835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1809,8 +1858,11 @@
       <c r="S20" s="38">
         <v>1.807815324711445</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="38">
+        <v>1.5024572004578396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -1868,8 +1920,11 @@
       <c r="S21" s="38">
         <v>3.2928586128833093</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="38">
+        <v>2.8259763748375066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>21</v>
       </c>
@@ -1927,8 +1982,11 @@
       <c r="S22" s="41">
         <v>1.8387963974300983</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T22" s="41">
+        <v>6.1744985943935555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1986,8 +2044,11 @@
       <c r="S23" s="38">
         <v>2.2260807622100529</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="38">
+        <v>4.3993752887090034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -2045,8 +2106,11 @@
       <c r="S24" s="38">
         <v>1.4582467499325562</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="38">
+        <v>7.9169155696940479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>23</v>
       </c>
@@ -2104,8 +2168,11 @@
       <c r="S25" s="41">
         <v>1.2245886088767601</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T25" s="41">
+        <v>2.8763040791558883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -2163,8 +2230,11 @@
       <c r="S26" s="38">
         <v>1.3105423773238725</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T26" s="38">
+        <v>1.4751329463567904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -2222,8 +2292,11 @@
       <c r="S27" s="38">
         <v>1.1375464261135158</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T27" s="38">
+        <v>4.2954684675262591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>25</v>
       </c>
@@ -2281,8 +2354,11 @@
       <c r="S28" s="41">
         <v>2.4791112740241377</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T28" s="41">
+        <v>1.8177568880002077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -2340,8 +2416,11 @@
       <c r="S29" s="38">
         <v>2.4279584268771761</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T29" s="38">
+        <v>1.581380197008345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -2399,8 +2478,11 @@
       <c r="S30" s="38">
         <v>2.5408788313520994</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T30" s="38">
+        <v>2.103608453446189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>27</v>
       </c>
@@ -2458,8 +2540,11 @@
       <c r="S31" s="41">
         <v>1.1238322680339958</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="41">
+        <v>1.3736037318066185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>34</v>
       </c>
@@ -2517,8 +2602,11 @@
       <c r="S32" s="39">
         <v>0.57553956834532372</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T32" s="39">
+        <v>2.249820014398848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>31</v>
       </c>
@@ -2575,6 +2663,9 @@
       </c>
       <c r="S33" s="40">
         <v>1.6467682173734046</v>
+      </c>
+      <c r="T33" s="40">
+        <v>0.53701655085009725</v>
       </c>
     </row>
   </sheetData>
